--- a/data/Laporan Nastar.xlsx
+++ b/data/Laporan Nastar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sistem Management Nastar\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1324A453-4D1B-4DE1-9B76-37173061424A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5913FC-AF2E-4FAB-A421-5D79AC40F822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="105">
   <si>
     <t>No</t>
   </si>
@@ -246,6 +246,96 @@
   </si>
   <si>
     <t>Mba Hani Pasar</t>
+  </si>
+  <si>
+    <t>Inez</t>
+  </si>
+  <si>
+    <t>Anton</t>
+  </si>
+  <si>
+    <t>Adit</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Ardi</t>
+  </si>
+  <si>
+    <t>Diko</t>
+  </si>
+  <si>
+    <t>Pak Haji</t>
+  </si>
+  <si>
+    <t>Bagas</t>
+  </si>
+  <si>
+    <t>Lukman</t>
+  </si>
+  <si>
+    <t>Reksi</t>
+  </si>
+  <si>
+    <t>Triyoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tubagus </t>
+  </si>
+  <si>
+    <t>Susu Dancow</t>
+  </si>
+  <si>
+    <t>1 pcs</t>
+  </si>
+  <si>
+    <t>Gula</t>
+  </si>
+  <si>
+    <t>15pcs</t>
+  </si>
+  <si>
+    <t>2kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27 Febuary</t>
+  </si>
+  <si>
+    <t>Margarin</t>
+  </si>
+  <si>
+    <t>Gula halus</t>
+  </si>
+  <si>
+    <t>Nangga</t>
+  </si>
+  <si>
+    <t>Devi</t>
+  </si>
+  <si>
+    <t>Andi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dancow </t>
+  </si>
+  <si>
+    <t>serenceng</t>
+  </si>
+  <si>
+    <t>tepung</t>
+  </si>
+  <si>
+    <t>telor 1,5kg</t>
+  </si>
+  <si>
+    <t>vanili</t>
+  </si>
+  <si>
+    <t>Hafid</t>
+  </si>
+  <si>
+    <t>Opi</t>
   </si>
 </sst>
 </file>
@@ -266,12 +356,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -301,10 +397,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,15 +708,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1576,6 +1677,550 @@
         <v>11</v>
       </c>
       <c r="J30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>70000</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>70000</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>70000</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>65000</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>50000</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>150000</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>32</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>195000</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>33</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>70000</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>34</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>70000</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>35</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>135000</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>36</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>50000</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>37</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>65000</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>38</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>65000</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>39</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>70000</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>40</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>130000</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>41</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>65000</v>
+      </c>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>42</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>65000</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1586,9 +2231,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D2:D35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1798,7 +2445,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1812,7 +2459,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1826,12 +2473,12 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1845,7 +2492,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1859,7 +2506,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1873,7 +2520,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1887,12 +2534,122 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>69</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29">
+        <v>35000</v>
+      </c>
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>139000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D31:D35"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>